--- a/WebAndLoadTestProject/bin/Debug/Resources/TestData.xlsx
+++ b/WebAndLoadTestProject/bin/Debug/Resources/TestData.xlsx
@@ -1,13 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pago2" sheetId="5" r:id="rId1"/>
+    <sheet name="pago" sheetId="1" r:id="rId2"/>
+    <sheet name="consulta" sheetId="2" r:id="rId3"/>
+    <sheet name="movimiento" sheetId="3" r:id="rId4"/>
+    <sheet name="login" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +22,373 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="108">
+  <si>
+    <t>DeviceId</t>
+  </si>
+  <si>
+    <t>UserGUID</t>
+  </si>
+  <si>
+    <t>cardID</t>
+  </si>
+  <si>
+    <t>cardExpDate</t>
+  </si>
+  <si>
+    <t>cardCVV</t>
+  </si>
+  <si>
+    <t>cardEPHId</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>cardHolder</t>
+  </si>
+  <si>
+    <t>6c188af9-4e68-32a3-9816-9bfe21a23d33</t>
+  </si>
+  <si>
+    <t>devicetype</t>
+  </si>
+  <si>
+    <t>b6097a4d-acad-4035-96eb-dc4a2e9a7824</t>
+  </si>
+  <si>
+    <t>0419</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>6520030238514058</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Eduardo Javier Epura</t>
+  </si>
+  <si>
+    <t>TarjetaNumero</t>
+  </si>
+  <si>
+    <t>currencyId</t>
+  </si>
+  <si>
+    <t>creditLineId</t>
+  </si>
+  <si>
+    <t>cardId</t>
+  </si>
+  <si>
+    <t>billingCycleId</t>
+  </si>
+  <si>
+    <t>billingPeriodId</t>
+  </si>
+  <si>
+    <t>billingYear</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>userguid</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>deviceosname</t>
+  </si>
+  <si>
+    <t>deviceosversion</t>
+  </si>
+  <si>
+    <t>eromerog @ph.com.mx</t>
+  </si>
+  <si>
+    <t>5540530743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xeHb / g / NOGBDCRAE1unMxg == </t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d33</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>5.0.2</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d34</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5.0.3</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d35</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5.0.4</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d36</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5.0.5</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d37</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5.0.6</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d38</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5.0.7</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d39</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5.0.8</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5.0.9</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d41</t>
+  </si>
+  <si>
+    <t>5.0.10</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d42</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5.0.11</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d43</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>5.0.12</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d44</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5.0.13</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d45</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5.0.14</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d46</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5.0.15</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d47</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>5.0.16</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d48</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5.0.17</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d49</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5.0.18</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d50</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>5.0.19</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d51</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>5.0.20</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d52</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>5.0.21</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d53</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5.0.22</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d54</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5.0.23</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d55</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5.0.24</t>
+  </si>
+  <si>
+    <t>c188af9 - 4e68 - 32a3 - 9816 - 9bfe21a23d56</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5.0.25</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,8 +417,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +704,2854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>484</v>
+      </c>
+      <c r="B2" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>484</v>
+      </c>
+      <c r="B3" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>484</v>
+      </c>
+      <c r="B4" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>484</v>
+      </c>
+      <c r="B5" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>484</v>
+      </c>
+      <c r="B6" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>484</v>
+      </c>
+      <c r="B7" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>484</v>
+      </c>
+      <c r="B8" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>484</v>
+      </c>
+      <c r="B9" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>484</v>
+      </c>
+      <c r="B10" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>484</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>484</v>
+      </c>
+      <c r="B12" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>484</v>
+      </c>
+      <c r="B13" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>484</v>
+      </c>
+      <c r="B14" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>484</v>
+      </c>
+      <c r="B15" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>484</v>
+      </c>
+      <c r="B16" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>484</v>
+      </c>
+      <c r="B17" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>484</v>
+      </c>
+      <c r="B18" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>484</v>
+      </c>
+      <c r="B19" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>484</v>
+      </c>
+      <c r="B20" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>484</v>
+      </c>
+      <c r="B21" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>484</v>
+      </c>
+      <c r="B22" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>484</v>
+      </c>
+      <c r="B23" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>484</v>
+      </c>
+      <c r="B24" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>484</v>
+      </c>
+      <c r="B25" s="2">
+        <v>500168</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>